--- a/Index.xlsx
+++ b/Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mukul practical\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1FAD60-15A8-4AE4-90E6-95888BA1E5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323DAAFC-6E3E-4BE7-A9E7-2E10E3A2A226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
